--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/3.2.GD_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/3.2.GD_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E655B5-F12E-40D5-9DA2-E5EC1B30B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,23 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Medida</t>
   </si>
@@ -335,9 +342,6 @@
     </r>
   </si>
   <si>
-    <t>Inicio de Operaciones</t>
-  </si>
-  <si>
     <t>Electricidad generada (MWh)</t>
   </si>
   <si>
@@ -385,9 +389,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1033,10 +1037,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1129,37 +1133,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1167,9 +1144,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1155,33 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,7 +1221,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="12 CuadroTexto"/>
+            <xdr:cNvPr id="2" name="12 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1916,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,12 +1950,12 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1996,10 +2003,10 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -2020,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2047,14 +2054,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2065,14 +2072,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -2108,14 +2115,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
@@ -2189,10 +2196,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2543,14 +2550,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2795,110 +2802,96 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="60"/>
-    </row>
-    <row r="6" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D5" s="67"/>
+    </row>
+    <row r="6" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
+      <c r="D6" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="54">
         <v>2018</v>
       </c>
-      <c r="C7" s="64">
-        <v>43518</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="55">
         <v>6247</v>
       </c>
-      <c r="E7" s="66">
-        <f>D7/1000*Factores!$D$12</f>
+      <c r="D7" s="56">
+        <f>C7/1000*Factores!$D$12</f>
         <v>2.5731392999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="54">
         <v>2019</v>
       </c>
-      <c r="C8" s="64">
-        <v>43518</v>
-      </c>
-      <c r="D8" s="65">
+      <c r="C8" s="55">
         <v>36497</v>
       </c>
-      <c r="E8" s="66">
-        <f>D8/1000*Factores!$D$13</f>
+      <c r="D8" s="56">
+        <f>C8/1000*Factores!$D$13</f>
         <v>15.033114299999999</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68">
-        <f>SUM(E7:E8)</f>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58">
+        <f>SUM(D7:D8)</f>
         <v>17.606253599999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
